--- a/data/trans_orig/Q15_2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q15_2-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,12</t>
+          <t>0,01; 0,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,14</t>
+          <t>0,01; 0,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,03</t>
+          <t>0,0; 0,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,08</t>
+          <t>0,01; 0,09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,02</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,06</t>
+          <t>0,01; 0,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,04</t>
+          <t>0,01; 0,04</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,03</t>
+          <t>0,01; 0,02</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1366,52 +1366,52 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>0,04</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,03</t>
         </is>
       </c>
     </row>
@@ -1429,64 +1429,64 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
+          <t>0,01; 0,06</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0,01; 0,03</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0,01; 0,03</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0,01; 0,04</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 0,06</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 0,07</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0,01; 0,06</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0,01; 0,03</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
           <t>0,02; 0,05</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 0,04</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
         <is>
           <t>0,01; 0,04</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 0,05</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 0,06</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 0,07</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 0,07</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,04; 0,07</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 0,04</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 0,06</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 0,05</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 0,06</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1511,47 +1511,47 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,06</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,01; 0,06</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 0,06</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 0,05</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 0,11</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 0,1</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 0,1</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 0,09</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 0,1</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 0,07</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 0,08</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 0,07</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 0,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0,03; 0,04</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>0,02; 0,04</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>0,02; 0,03</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>0,02; 0,04</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>0,02; 0,03</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>0,02; 0,04</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>0,02; 0,03</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 0,04</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>0,03; 0,04</t>
         </is>
       </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 0,04</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>0,03; 0,03</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>0,02; 0,03</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
         <is>
           <t>0,02; 0,04</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_orig/Q15_2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q15_2-Edad-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el número de accidentes en los últimos 3 meses</t>
+          <t>Número medio de accidentes en los últimos 3 meses</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -734,12 +734,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,08</t>
+          <t>0,03; 0,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,1</t>
+          <t>0,0; 0,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,05</t>
+          <t>0,02; 0,06</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,03; 0,06</t>
+          <t>0,03; 0,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -879,19 +879,19 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,16</t>
+          <t>0,02; 0,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>0,02; 0,04</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0,01; 0,04</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 0,04</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
           <t>0,01; 0,03</t>
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,09</t>
+          <t>0,01; 0,07</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,05</t>
+          <t>0,01; 0,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,03</t>
+          <t>0,01; 0,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,04</t>
+          <t>0,01; 0,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1289,14 +1289,14 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
+          <t>0,0; 0,03</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>0,0; 0,02</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,02</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
           <t>0,01; 0,02</t>
@@ -1314,17 +1314,17 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,05</t>
+          <t>0,02; 0,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,03</t>
+          <t>0,02; 0,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,01; 0,04</t>
+          <t>0,01; 0,03</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1424,44 +1424,44 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>0,01; 0,03</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,01; 0,06</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0,01; 0,03</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>0,01; 0,04</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0,01; 0,04</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0,02; 0,06</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 0,07</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>0,01; 0,06</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 0,03</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 0,03</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 0,04</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 0,06</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 0,07</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,01; 0,06</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
           <t>0,01; 0,03</t>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,04</t>
+          <t>0,02; 0,05</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1574,12 +1574,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,05</t>
+          <t>0,02; 0,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,11</t>
+          <t>0,02; 0,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,02; 0,04</t>
+          <t>0,02; 0,03</t>
         </is>
       </c>
     </row>
